--- a/programs/lab_02/pipeline.xlsx
+++ b/programs/lab_02/pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaongaro/Documents/Documenti Andrea Ongaro/Magistrale/Torino/Corsi/2_ANNO/Architettura degli Elaboratori/Laboratori/ase_riscv_gem5_sim/programs/lab_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8367ACC3-81BC-4B4A-8BAA-75B17541143B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B055B37B-9C6F-9A43-90EA-C7044C1BC29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="580" windowWidth="29960" windowHeight="20220" activeTab="2" xr2:uid="{EA74D1AB-00FC-6749-B169-AAD21C76336E}"/>
   </bookViews>
@@ -281,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,6 +317,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -370,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -585,11 +599,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -600,7 +676,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -613,8 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -628,12 +701,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1666,10 +1760,10 @@
       <c r="AA42" t="s">
         <v>1</v>
       </c>
-      <c r="AB42" s="35" t="s">
+      <c r="AB42" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AC42" s="35"/>
+      <c r="AC42" s="32"/>
       <c r="AD42" t="s">
         <v>3</v>
       </c>
@@ -1713,10 +1807,10 @@
       <c r="AD45" t="s">
         <v>1</v>
       </c>
-      <c r="AE45" s="35" t="s">
+      <c r="AE45" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AF45" s="35"/>
+      <c r="AF45" s="32"/>
       <c r="AG45" t="s">
         <v>3</v>
       </c>
@@ -1783,10 +1877,10 @@
       <c r="AG49" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AH49" s="35" t="s">
+      <c r="AH49" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AI49" s="35"/>
+      <c r="AI49" s="32"/>
       <c r="AJ49" t="s">
         <v>4</v>
       </c>
@@ -1804,10 +1898,10 @@
       <c r="AH50" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AI50" s="35" t="s">
+      <c r="AI50" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AJ50" s="35"/>
+      <c r="AJ50" s="32"/>
       <c r="AK50" t="s">
         <v>4</v>
       </c>
@@ -2728,7 +2822,7 @@
   <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2749,68 +2843,68 @@
     </row>
     <row r="3" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>8</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>6</v>
       </c>
       <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>24</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>20</v>
       </c>
       <c r="I6" s="6">
         <v>16</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>42</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>38</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>30</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>8</v>
       </c>
     </row>
@@ -2818,19 +2912,19 @@
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="44">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="31" t="s">
         <v>63</v>
       </c>
       <c r="J9" t="s">
@@ -2853,27 +2947,30 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G10" s="28"/>
-      <c r="H10" s="31"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="28"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="25">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="47">
         <v>6</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="48">
         <f>(C11)/C23*100</f>
         <v>0.87591240875912413</v>
       </c>
-      <c r="G11" s="28">
-        <v>1</v>
-      </c>
-      <c r="H11" s="31">
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28">
         <f>PRODUCT(G11,C11)</f>
         <v>6</v>
       </c>
@@ -2903,20 +3000,20 @@
       <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="25">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="47">
         <v>7</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="48">
         <f>(C12)/C23*100</f>
         <v>1.0218978102189782</v>
       </c>
-      <c r="G12" s="28">
-        <v>1</v>
-      </c>
-      <c r="H12" s="31">
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28">
         <f t="shared" ref="H12:H21" si="0">PRODUCT(G12,C12)</f>
         <v>7</v>
       </c>
@@ -2946,20 +3043,20 @@
       <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="25">
+        <v>1</v>
+      </c>
+      <c r="C13" s="47">
         <v>32</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="48">
         <f>(C13)/C23*100</f>
         <v>4.6715328467153281</v>
       </c>
-      <c r="G13" s="28">
-        <v>1</v>
-      </c>
-      <c r="H13" s="31">
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28">
         <f>PRODUCT(G13,C13)</f>
         <v>32</v>
       </c>
@@ -2989,21 +3086,21 @@
       <c r="A14" t="s">
         <v>60</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="47">
         <f>PRODUCT(B14,B9)</f>
         <v>192</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="48">
         <f>(C14)/C23*100</f>
         <v>28.029197080291972</v>
       </c>
-      <c r="G14" s="28">
-        <v>1</v>
-      </c>
-      <c r="H14" s="31">
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
@@ -3033,21 +3130,21 @@
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="25">
+        <v>3</v>
+      </c>
+      <c r="C15" s="47">
         <f>PRODUCT(B15,B9)</f>
         <v>96</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="48">
         <f>(C15)/C23*100</f>
         <v>14.014598540145986</v>
       </c>
-      <c r="G15" s="28">
-        <v>1</v>
-      </c>
-      <c r="H15" s="31">
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="28">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -3077,21 +3174,21 @@
       <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="25">
+        <v>3</v>
+      </c>
+      <c r="C16" s="47">
         <f>PRODUCT(B16,B9)</f>
         <v>96</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="48">
         <f>(C16)/C23*100</f>
         <v>14.014598540145986</v>
       </c>
-      <c r="G16" s="28">
-        <v>1</v>
-      </c>
-      <c r="H16" s="31">
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="28">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -3121,25 +3218,25 @@
       <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="25">
+        <v>3</v>
+      </c>
+      <c r="C17" s="47">
         <f>PRODUCT(B17,B9)</f>
         <v>96</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="48">
         <f>(C17)/C23*100</f>
         <v>14.014598540145986</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="26">
         <v>8</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="28">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <v>6</v>
       </c>
       <c r="K17">
@@ -3165,25 +3262,25 @@
       <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="47">
         <f>PRODUCT(B18,B9)</f>
         <v>64</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="48">
         <f>(C18)/C23*100</f>
         <v>9.3430656934306562</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="26">
         <v>24</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="28">
         <f t="shared" si="0"/>
         <v>1536</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="17">
         <v>20</v>
       </c>
       <c r="K18">
@@ -3209,25 +3306,25 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="47">
         <f>PRODUCT(B19,B9)</f>
         <v>32</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="48">
         <f>(C19)/C23*100</f>
         <v>4.6715328467153281</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="26">
         <v>42</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="28">
         <f t="shared" si="0"/>
         <v>1344</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="17">
         <v>38</v>
       </c>
       <c r="K19">
@@ -3253,21 +3350,21 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="25">
+        <v>1</v>
+      </c>
+      <c r="C20" s="47">
         <f>PRODUCT(B20,B9)</f>
         <v>32</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="48">
         <f>(C20)/C23*100</f>
         <v>4.6715328467153281</v>
       </c>
-      <c r="G20" s="28">
-        <v>1</v>
-      </c>
-      <c r="H20" s="31">
+      <c r="G20" s="25">
+        <v>1</v>
+      </c>
+      <c r="H20" s="28">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -3297,21 +3394,21 @@
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="25">
+        <v>1</v>
+      </c>
+      <c r="C21" s="47">
         <f>PRODUCT(B21,B9)</f>
         <v>32</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="48">
         <f>(C21)/C23*100</f>
         <v>4.6715328467153281</v>
       </c>
-      <c r="G21" s="28">
-        <v>1</v>
-      </c>
-      <c r="H21" s="31">
+      <c r="G21" s="25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="28">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -3341,37 +3438,37 @@
       <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="25">
-        <v>3</v>
-      </c>
-      <c r="D22" s="25">
-        <v>3</v>
-      </c>
-      <c r="G22" s="30">
-        <v>1</v>
-      </c>
-      <c r="H22" s="32">
+      <c r="B22" s="49">
+        <v>3</v>
+      </c>
+      <c r="C22" s="50">
+        <v>3</v>
+      </c>
+      <c r="D22" s="51">
+        <v>3</v>
+      </c>
+      <c r="G22" s="27">
+        <v>1</v>
+      </c>
+      <c r="H22" s="29">
         <v>32</v>
       </c>
-      <c r="J22" s="25">
-        <v>1</v>
-      </c>
-      <c r="K22" s="25">
+      <c r="J22" s="22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="22">
         <v>32</v>
       </c>
-      <c r="M22" s="25">
-        <v>1</v>
-      </c>
-      <c r="N22" s="25">
+      <c r="M22" s="22">
+        <v>1</v>
+      </c>
+      <c r="N22" s="22">
         <v>32</v>
       </c>
-      <c r="P22" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="25">
+      <c r="P22" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="22">
         <v>32</v>
       </c>
     </row>
@@ -3417,31 +3514,34 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
+      <c r="G24" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="39">
         <f>SUM(H17:H19)/H23</f>
         <v>0.87419122933141624</v>
       </c>
-      <c r="J24" t="s">
+      <c r="I24" s="39"/>
+      <c r="J24" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="39">
         <f>SUM(K17:K19)/K23</f>
         <v>0.85404503753127603</v>
       </c>
-      <c r="M24" t="s">
+      <c r="L24" s="39"/>
+      <c r="M24" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="39">
         <f>SUM(N17:N19)/N23</f>
         <v>0.82768262845159035</v>
       </c>
-      <c r="P24" t="s">
+      <c r="O24" s="39"/>
+      <c r="P24" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="39">
         <f>SUM(Q17:Q19)/Q23</f>
         <v>0.58813700918964074</v>
       </c>
@@ -3507,87 +3607,89 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
+      <c r="G27" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="34">
         <f>SUM(D17:D19)/100</f>
         <v>0.28029197080291973</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="34">
         <f>SUM(D17:D19)/100</f>
         <v>0.28029197080291973</v>
       </c>
-      <c r="M27" t="s">
+      <c r="L27" s="33"/>
+      <c r="M27" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="34">
         <f>SUM(D17:D19)/100</f>
         <v>0.28029197080291973</v>
       </c>
-      <c r="P27" t="s">
+      <c r="O27" s="33"/>
+      <c r="P27" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="34">
         <f>SUM(D17:D19)/100</f>
         <v>0.28029197080291973</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="24">
+      <c r="G28" s="36"/>
+      <c r="H28" s="37">
         <f>1/((1-H27)+H27/H26)</f>
         <v>1</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24">
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="37">
         <f>1/((1-K27)+K27/K26)</f>
         <v>1.0402458156426349</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24">
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="37">
         <f>1/((1-N27)+N27/N26)</f>
         <v>1.0966407977285362</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24">
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="37">
         <f>1/((1-N27)+N27/Q26)</f>
         <v>1.2498311189696354</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="24">
+      <c r="G29" s="41"/>
+      <c r="H29" s="42">
         <f>1/((1-H27)+H27/H26)</f>
         <v>1</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24">
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="42">
         <f>1/((1-K24)+K24/K26)</f>
         <v>1.1336377558199049</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24">
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="42">
         <f>1/((1-N24)+N24/N26)</f>
         <v>1.3517626594786745</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="24">
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="42">
         <f>1/((1-Q24)+Q24/Q26)</f>
         <v>1.7224553849909843</v>
       </c>
@@ -3707,14 +3809,14 @@
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C39" s="26">
+      <c r="C39" s="23">
         <v>8</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="4"/>
         <v>768</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="15">
         <v>8</v>
       </c>
       <c r="H39">
@@ -3723,14 +3825,14 @@
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C40" s="26">
+      <c r="C40" s="23">
         <v>8</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="4"/>
         <v>512</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="15">
         <v>24</v>
       </c>
       <c r="H40">
@@ -3739,14 +3841,14 @@
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C41" s="26">
+      <c r="C41" s="23">
         <v>42</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="4"/>
         <v>1344</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="15">
         <v>14</v>
       </c>
       <c r="H41">
@@ -3787,17 +3889,17 @@
       </c>
     </row>
     <row r="44" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="27">
-        <v>1</v>
-      </c>
-      <c r="D44" s="27">
+      <c r="C44" s="24">
+        <v>1</v>
+      </c>
+      <c r="D44" s="24">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G44" s="25">
-        <v>1</v>
-      </c>
-      <c r="H44" s="25">
+      <c r="G44" s="22">
+        <v>1</v>
+      </c>
+      <c r="H44" s="22">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
